--- a/PAMELLA OBURE.xlsx
+++ b/PAMELLA OBURE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -154,17 +154,26 @@
   </si>
   <si>
     <t>FOR THE MONTH OF NOVENBER 2021</t>
+  </si>
+  <si>
+    <t>RENT IS 2000 NOT 3000</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>PAID ON 14/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +298,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -359,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +474,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,6 +527,7 @@
       <sheetName val="SEPT 21"/>
       <sheetName val="OCTOBER 21"/>
       <sheetName val="NOVEMBER"/>
+      <sheetName val="DECEMBER 21"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -508,13 +537,10 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="37">
-          <cell r="H37"/>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -563,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,43 +851,43 @@
     <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
@@ -890,7 +916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
@@ -916,7 +942,7 @@
       </c>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
@@ -941,7 +967,7 @@
       </c>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>32</v>
       </c>
@@ -969,7 +995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>38</v>
       </c>
@@ -994,7 +1020,7 @@
       </c>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>37</v>
       </c>
@@ -1021,7 +1047,7 @@
       </c>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
@@ -1046,7 +1072,7 @@
       </c>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>28</v>
       </c>
@@ -1071,7 +1097,7 @@
       </c>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>29</v>
       </c>
@@ -1101,7 +1127,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>31</v>
       </c>
@@ -1113,25 +1139,28 @@
         <v>1800</v>
       </c>
       <c r="E13" s="11">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="G13" s="9">
         <v>2000</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="I13" s="45"/>
       <c r="J13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1185,7 @@
       </c>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>35</v>
       </c>
@@ -1181,7 +1210,7 @@
       </c>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>36</v>
       </c>
@@ -1251,11 +1280,11 @@
       </c>
       <c r="E19" s="15">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="2"/>
-        <v>43800</v>
+        <v>42800</v>
       </c>
       <c r="G19" s="9">
         <f>SUM(G5:G18)</f>
@@ -1263,7 +1292,7 @@
       </c>
       <c r="H19" s="10">
         <f>SUM(H5:H18)</f>
-        <v>11800</v>
+        <v>10800</v>
       </c>
       <c r="I19" s="45">
         <f>SUM(I5:I18)</f>
@@ -1278,16 +1307,16 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -1335,7 +1364,7 @@
       </c>
       <c r="B25" s="20">
         <f>E19</f>
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1405,7 +1434,7 @@
       </c>
       <c r="C29" s="20">
         <f>B29*B25</f>
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
@@ -1416,7 +1445,7 @@
       </c>
       <c r="G29" s="20">
         <f>F29*B25</f>
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H29" s="14"/>
     </row>
@@ -1506,7 +1535,7 @@
       </c>
       <c r="B37" s="24">
         <f>B28+B25+B26+B27-C29</f>
-        <v>32500</v>
+        <v>31600</v>
       </c>
       <c r="C37" s="24">
         <f>SUM(C31:C36)</f>
@@ -1514,14 +1543,14 @@
       </c>
       <c r="D37" s="24">
         <f>B37-C37</f>
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="24">
         <f>F25+F26+F28+F27-G29</f>
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="G37" s="24">
         <f>SUM(G31:G36)</f>
@@ -1529,7 +1558,7 @@
       </c>
       <c r="H37" s="24">
         <f>F37-G37</f>
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1576,51 +1605,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
@@ -1668,14 +1701,16 @@
         <f>C5+D5+E5</f>
         <v>5000</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>4500</v>
+      </c>
       <c r="H5" s="10">
         <f>F5-G5</f>
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>41</v>
       </c>
@@ -1701,36 +1736,34 @@
       </c>
       <c r="I6" s="45"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="47">
         <v>3</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8">
-        <f>NOVEMBER!H7:H20</f>
-        <v>6000</v>
+      <c r="C7" s="13"/>
+      <c r="D7" s="48">
+        <v>3000</v>
       </c>
       <c r="E7" s="11">
         <v>3000</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="G7" s="12"/>
+        <v>6000</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6000</v>
+      </c>
       <c r="H7" s="10">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="45"/>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>38</v>
       </c>
@@ -1749,23 +1782,23 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12">
+        <v>3000</v>
+      </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
-        <v>1000</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="8">
         <f>NOVEMBER!H9:H22</f>
         <v>0</v>
@@ -1775,16 +1808,16 @@
       </c>
       <c r="F9" s="9">
         <f>C9+D9+E9</f>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="10">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="I9" s="45"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
@@ -1803,14 +1836,16 @@
         <f>C10+D10+E10</f>
         <v>3000</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>3000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="45"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>28</v>
       </c>
@@ -1829,14 +1864,16 @@
         <f>C11+D11+E11</f>
         <v>3000</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9">
+        <v>3000</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="45"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>29</v>
       </c>
@@ -1844,28 +1881,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="8">
-        <f>NOVEMBER!H12:H25</f>
-        <v>3000</v>
-      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="11">
         <v>3000</v>
       </c>
       <c r="F12" s="9">
         <f>C12+D12+E12</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="10">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="I12" s="45"/>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>31</v>
       </c>
@@ -1873,28 +1904,24 @@
         <v>9</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="8">
-        <f>NOVEMBER!H13:H26</f>
-        <v>2800</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="11">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>5800</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>2000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2000</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="1"/>
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="I13" s="45"/>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>30</v>
       </c>
@@ -1920,8 +1947,8 @@
       </c>
       <c r="I14" s="45"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="6">
@@ -1939,14 +1966,16 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9">
+        <v>3500</v>
+      </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I15" s="45"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>36</v>
       </c>
@@ -2017,27 +2046,27 @@
       <c r="B19" s="14"/>
       <c r="C19" s="7">
         <f t="shared" ref="C19:F19" si="2">SUM(C5:C18)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D19" s="8">
         <f>SUM(D5:D18)</f>
-        <v>11800</v>
+        <v>3000</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="2"/>
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="2"/>
-        <v>47800</v>
+        <v>37000</v>
       </c>
       <c r="G19" s="9">
         <f>SUM(G5:G18)</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="H19" s="10">
         <f>SUM(H5:H18)</f>
-        <v>47800</v>
+        <v>12000</v>
       </c>
       <c r="I19" s="45">
         <f>SUM(I5:I18)</f>
@@ -2054,16 +2083,16 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -2107,20 +2136,20 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B25" s="20">
         <f>E19</f>
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F25" s="20">
         <f>G19</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2131,7 +2160,7 @@
       </c>
       <c r="B26" s="20">
         <f>NOVEMBER!D37</f>
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -2140,7 +2169,7 @@
       </c>
       <c r="F26" s="20">
         <f>NOVEMBER!H37</f>
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2164,10 +2193,7 @@
       <c r="A28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="20">
-        <f>C19</f>
-        <v>1000</v>
-      </c>
+      <c r="B28" s="20"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -2184,7 +2210,7 @@
       </c>
       <c r="C29" s="20">
         <f>B29*B25</f>
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
@@ -2195,7 +2221,7 @@
       </c>
       <c r="G29" s="20">
         <f>F29*B25</f>
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H29" s="14"/>
     </row>
@@ -2216,13 +2242,21 @@
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="B31" s="21"/>
-      <c r="C31" s="23"/>
+      <c r="C31" s="23">
+        <v>29700</v>
+      </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="42"/>
+      <c r="E31" s="42" t="s">
+        <v>47</v>
+      </c>
       <c r="F31" s="21"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="23">
+        <v>29700</v>
+      </c>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2277,30 +2311,30 @@
       </c>
       <c r="B37" s="24">
         <f>B28+B25+B26+B27-C29</f>
-        <v>32500</v>
+        <v>29700</v>
       </c>
       <c r="C37" s="24">
         <f>SUM(C31:C36)</f>
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="D37" s="24">
         <f>B37-C37</f>
-        <v>32500</v>
+        <v>0</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="24">
         <f>F25+F26+F28+F27-G29</f>
-        <v>-7500</v>
+        <v>17700</v>
       </c>
       <c r="G37" s="24">
         <f>SUM(G31:G36)</f>
-        <v>0</v>
+        <v>29700</v>
       </c>
       <c r="H37" s="24">
         <f>F37-G37</f>
-        <v>-7500</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2362,6 +2396,7 @@
     <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
